--- a/results/20250226_215252/benchmark_moves(R).xlsx
+++ b/results/20250226_215252/benchmark_moves(R).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS11"/>
+  <dimension ref="A1:AZ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -654,6 +654,41 @@
           <t>Epoch 430</t>
         </is>
       </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 440</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 450</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 460</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 470</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 480</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 490</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch 500</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -793,6 +828,27 @@
       <c r="AS2" t="n">
         <v>118.4</v>
       </c>
+      <c r="AT2" t="n">
+        <v>118.6</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>119.6</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>118.2</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>119.2</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>119</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>118.2</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>118.8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -932,6 +988,27 @@
       <c r="AS3" t="n">
         <v>231</v>
       </c>
+      <c r="AT3" t="n">
+        <v>233.2</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>233</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>234.6</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>235.2</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>230.8</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>234.6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1071,6 +1148,27 @@
       <c r="AS4" t="n">
         <v>458.6</v>
       </c>
+      <c r="AT4" t="n">
+        <v>460.2</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>458.6</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>457.8</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>457.4</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>459.2</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>454.2</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>456.8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1210,6 +1308,27 @@
       <c r="AS5" t="n">
         <v>699.4000000000001</v>
       </c>
+      <c r="AT5" t="n">
+        <v>701.6</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>704.8</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>710.4000000000001</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>703.4000000000001</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>703</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>701</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>700</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1349,6 +1468,27 @@
       <c r="AS6" t="n">
         <v>928.6</v>
       </c>
+      <c r="AT6" t="n">
+        <v>932.2</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>928</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>933</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>929.2</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>934.6</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>925.2</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>932.2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1488,6 +1628,27 @@
       <c r="AS7" t="n">
         <v>1155.8</v>
       </c>
+      <c r="AT7" t="n">
+        <v>1161.2</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>1151.4</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>1155</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>1156.2</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>1154.6</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>1144</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>1156</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1627,6 +1788,27 @@
       <c r="AS8" t="n">
         <v>169.8</v>
       </c>
+      <c r="AT8" t="n">
+        <v>171.4</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>168.8</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>172.4</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>170.8</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>171.6</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>169.2</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>172.6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1766,6 +1948,27 @@
       <c r="AS9" t="n">
         <v>358.4</v>
       </c>
+      <c r="AT9" t="n">
+        <v>356.8</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>360.4</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>359.2</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>358.8</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>359.2</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>357.2</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>360</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1905,6 +2108,27 @@
       <c r="AS10" t="n">
         <v>698.4000000000001</v>
       </c>
+      <c r="AT10" t="n">
+        <v>700.6</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>695.2</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>692.6</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>695.4000000000001</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>696.8</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>685</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>700.2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2043,6 +2267,27 @@
       </c>
       <c r="AS11" t="n">
         <v>1024.4</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>1034.6</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>1029.6</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>1034.8</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1030.8</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>1027</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>1021.4</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>1029.6</v>
       </c>
     </row>
   </sheetData>
